--- a/outputs/mod_6.xlsx
+++ b/outputs/mod_6.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.968438485111447</v>
+        <v>0.1863858308600096</v>
       </c>
       <c r="E2" t="n">
-        <v>11.06210162567027</v>
+        <v>0.4127019319245259</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6299380281356999</v>
+        <v>0.4516233543924758</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25.87310286614714</v>
+        <v>0.1809470910788938</v>
       </c>
       <c r="E3" t="n">
-        <v>19.98337401460205</v>
+        <v>0.3878970073248023</v>
       </c>
       <c r="F3" t="n">
-        <v>1.294731452618632</v>
+        <v>0.4664823075765038</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.577527483488453</v>
+        <v>1.126658571056921</v>
       </c>
       <c r="E4" t="n">
-        <v>30.29164971569633</v>
+        <v>2.478129410399567</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1181027615552636</v>
+        <v>0.4546407327756389</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -557,19 +557,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-21.81355147931046</v>
+        <v>17.96113415906975</v>
       </c>
       <c r="E5" t="n">
-        <v>5.029342973932116</v>
+        <v>20510.81890692628</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.337256693841236</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.0008756907386571715</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,13 +582,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-9.347993060744505</v>
+        <v>0.8951140077499596</v>
       </c>
       <c r="E6" t="n">
-        <v>12.10290017541274</v>
+        <v>0.6187022170174766</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7723762838046967</v>
+        <v>1.446760627535743</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -611,19 +607,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20.88668085403199</v>
+        <v>0.7933133400875408</v>
       </c>
       <c r="E7" t="n">
-        <v>7.862952370079998</v>
+        <v>0.8346572065946428</v>
       </c>
       <c r="F7" t="n">
-        <v>2.656340757386463</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.9504660521943101</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -640,13 +632,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-320.2293476492084</v>
+        <v>-2.12763018518066</v>
       </c>
       <c r="E8" t="n">
-        <v>7.898103481178707</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-40.54509394721398</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -669,13 +663,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.87832165518241</v>
+        <v>-0.4337574739677686</v>
       </c>
       <c r="E9" t="n">
-        <v>46.97437024128686</v>
+        <v>0.6898149255230887</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2528681405236228</v>
+        <v>-0.6288026801375008</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -694,13 +688,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-8.512320265499898</v>
+        <v>-1.460358086325382</v>
       </c>
       <c r="E10" t="n">
-        <v>73.76515500122295</v>
+        <v>1.740782897693342</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1153975785092402</v>
+        <v>-0.8389087968755077</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -719,13 +713,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-1.759629269307804</v>
+        <v>-0.347699918729985</v>
       </c>
       <c r="E11" t="n">
-        <v>13.20209091300867</v>
+        <v>1.718578381297669</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1332841351345304</v>
+        <v>-0.2023183361979933</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -744,13 +738,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-76.81151501487146</v>
+        <v>-16.77683208029799</v>
       </c>
       <c r="E12" t="n">
-        <v>111.7519355745833</v>
+        <v>15.33231815501118</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6873394596696486</v>
+        <v>-1.094213667540853</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -765,17 +759,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>priceperoz_inc</t>
+          <t>mint_purchase_InStore</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-68.29351110578394</v>
+        <v>1.460762348970327</v>
       </c>
       <c r="E13" t="n">
-        <v>99.69412057137509</v>
+        <v>20703.67926533743</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.685030478370987</v>
+        <v>7.055568868939968e-05</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -790,23 +784,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mint_purchase_InStore</t>
+          <t>fluoride_purchase_InStore</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39.56368503946621</v>
+        <v>0.001835274020112757</v>
       </c>
       <c r="E14" t="n">
-        <v>11.49523362794265</v>
+        <v>3.263163417391111</v>
       </c>
       <c r="F14" t="n">
-        <v>3.441746929205048</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.0005624217317256066</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -819,17 +809,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fluoride_purchase_InStore</t>
+          <t>kids_purchase_InStore</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-46.98265320590976</v>
+        <v>-0.6469166934565252</v>
       </c>
       <c r="E15" t="n">
-        <v>10.67426404037369</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-4.40148876102422</v>
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -848,23 +840,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>kids_purchase_InStore</t>
+          <t>sizeNorm_purchase_InStore</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>324.5381547455403</v>
+        <v>-0.004971358013114427</v>
       </c>
       <c r="E16" t="n">
-        <v>7.898106155590622</v>
+        <v>1.935397446973827</v>
       </c>
       <c r="F16" t="n">
-        <v>41.09062962085135</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.002568649669806894</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -872,28 +860,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sizeNorm_purchase_InStore</t>
+          <t>brand_Aquafresh</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-55.38607212602327</v>
+        <v>0.007314253676108001</v>
       </c>
       <c r="E17" t="n">
-        <v>13.30430403910073</v>
+        <v>9.594441547037928</v>
       </c>
       <c r="F17" t="n">
-        <v>-4.163019122476922</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.0007623428252961857</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -901,22 +885,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>discount_purchase_InStore</t>
+          <t>brand_Colgate</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11.43235580415918</v>
+        <v>-0.001132792781115131</v>
       </c>
       <c r="E18" t="n">
-        <v>84.55746246342622</v>
+        <v>20.21781814824431</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1352022100841074</v>
+        <v>-5.602942774581745e-05</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -926,378 +910,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>white_ed_HighSchool</t>
+          <t>brand_Sensodyne</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-295.248618046976</v>
+        <v>0.003099750804313202</v>
       </c>
       <c r="E19" t="n">
-        <v>111.5035017705342</v>
+        <v>83.48557004392609</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.647886509022608</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>fluoride_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>19.61435069859657</v>
-      </c>
-      <c r="E20" t="n">
-        <v>130.9211136649349</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1498180862469241</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sizeNorm_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>-8.051472697894971</v>
-      </c>
-      <c r="E21" t="n">
-        <v>261.5917311464714</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.03077877371202823</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>familypack_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>-3.080318856153825</v>
-      </c>
-      <c r="E22" t="n">
-        <v>277.7526867188947</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.01109014963110447</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>brand_Aquafresh</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.1595013670326934</v>
-      </c>
-      <c r="E23" t="n">
-        <v>41.68888218311861</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.003825992894990155</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>brand_Colgate</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8934212758185508</v>
-      </c>
-      <c r="E24" t="n">
-        <v>29.19480369484209</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.03060206484540924</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>brand_Sensodyne</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1.656730945197651</v>
-      </c>
-      <c r="E25" t="n">
-        <v>14.07325442911347</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1177219493573822</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>mint</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0.494353469260911</v>
-      </c>
-      <c r="E26" t="n">
-        <v>8.829512197865034</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.05598876338609568</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0.1097915017917821</v>
-      </c>
-      <c r="E27" t="n">
-        <v>11.9696301802033</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.009172505761570427</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>fluoride</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0.6250675690446125</v>
-      </c>
-      <c r="E28" t="n">
-        <v>51.9159677686551</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.01203998684624357</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>kids</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0.07716991940662488</v>
-      </c>
-      <c r="E29" t="n">
-        <v>69.09846072677622</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.001116810976611537</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>sizeNorm</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0.02234657041179354</v>
-      </c>
-      <c r="E30" t="n">
-        <v>91.86619871275539</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0002432512798495795</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>discount</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>-0.2258224860088316</v>
-      </c>
-      <c r="E31" t="n">
-        <v>20.55220396694394</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-0.01098775033432149</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>familypack</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1097174430700624</v>
-      </c>
-      <c r="E32" t="n">
-        <v>21.46093399624008</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.005112426285327785</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>priceperoz</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0.05916687719921889</v>
-      </c>
-      <c r="E33" t="n">
-        <v>119.8367941689252</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.0004937288051599215</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>3.712918055997297e-05</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1310,7 +940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,13 +995,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3805535613270274</v>
+        <v>0.01691832626390132</v>
       </c>
       <c r="E2" t="n">
-        <v>3801.108490614068</v>
+        <v>12.76937261522181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001001164692527756</v>
+        <v>0.001324914447537832</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1390,13 +1020,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.030208747975847</v>
+        <v>0.1513354587938154</v>
       </c>
       <c r="E3" t="n">
-        <v>5496.597836737423</v>
+        <v>16.32638803639077</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005512880581735387</v>
+        <v>0.009269377798475425</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1415,13 +1045,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8334176227722331</v>
+        <v>0.898902315334756</v>
       </c>
       <c r="E4" t="n">
-        <v>15057.4551702714</v>
+        <v>1063134.487023315</v>
       </c>
       <c r="F4" t="n">
-        <v>5.534916845827216e-05</v>
+        <v>8.455207937535776e-07</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -1440,13 +1070,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.44924004358906</v>
+        <v>17.96442864375837</v>
       </c>
       <c r="E5" t="n">
-        <v>4730.795992786613</v>
+        <v>1746624.678482137</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002208769953200638</v>
+        <v>1.028522547807462e-05</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -1465,13 +1095,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1.224227552046905</v>
+        <v>0.9184017590229465</v>
       </c>
       <c r="E6" t="n">
-        <v>2368.035335273522</v>
+        <v>1063129.268017593</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0005169802721315808</v>
+        <v>8.638664992597578e-07</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -1490,13 +1120,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.917604120119884</v>
+        <v>1.002581206638517</v>
       </c>
       <c r="E7" t="n">
-        <v>416.9324791414289</v>
+        <v>1063093.689604115</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009396255547630248</v>
+        <v>9.430788804812381e-07</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -1515,13 +1145,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-3.531699254100535</v>
+        <v>-2.183431241769535</v>
       </c>
       <c r="E8" t="n">
-        <v>3837.493754941507</v>
+        <v>85136.06447588319</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0009203140069095348</v>
+        <v>-2.564637272360697e-05</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1540,13 +1170,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-2.302387872117328</v>
+        <v>0.03603412306376141</v>
       </c>
       <c r="E9" t="n">
-        <v>684.0006820985229</v>
+        <v>432.9359453130226</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003366060783819063</v>
+        <v>8.323199645090203e-05</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1565,13 +1195,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.02759551700311516</v>
+        <v>1.291841565953378</v>
       </c>
       <c r="E10" t="n">
-        <v>3799.068978574348</v>
+        <v>7.533169918819317</v>
       </c>
       <c r="F10" t="n">
-        <v>-7.263757820335957e-06</v>
+        <v>0.1714871136420416</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1590,13 +1220,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.370658769679524</v>
+        <v>0.05804297642577662</v>
       </c>
       <c r="E11" t="n">
-        <v>1162.273867467184</v>
+        <v>19.47204165565837</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001179290705955948</v>
+        <v>0.002980836701780059</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1615,13 +1245,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-5.252931209422887</v>
+        <v>0.8119952386735306</v>
       </c>
       <c r="E12" t="n">
-        <v>17562.6111551238</v>
+        <v>133.9674734482595</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0002990973929232824</v>
+        <v>0.00606113721318434</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1636,17 +1266,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>priceperoz_inc</t>
+          <t>mint_purchase_InStore</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.5779416557561439</v>
+        <v>1.328572205509225</v>
       </c>
       <c r="E13" t="n">
-        <v>11234.64567939335</v>
+        <v>436275.3450013486</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.144280222528137e-05</v>
+        <v>3.045260798556283e-06</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1661,17 +1291,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mint_purchase_InStore</t>
+          <t>fluoride_purchase_InStore</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-8.799675752930321</v>
+        <v>-0.0002157442004537276</v>
       </c>
       <c r="E14" t="n">
-        <v>2274.886620512349</v>
+        <v>382.9919502368198</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.003868182121071362</v>
+        <v>-5.633126239868073e-07</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1686,17 +1316,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fluoride_purchase_InStore</t>
+          <t>kids_purchase_InStore</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-5.349125594133312</v>
+        <v>-0.6469166934565252</v>
       </c>
       <c r="E15" t="n">
-        <v>785.302195523867</v>
+        <v>12430.38865774549</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.006811550540190411</v>
+        <v>-5.204315900882354e-05</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1711,17 +1341,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>kids_purchase_InStore</t>
+          <t>sizeNorm_purchase_InStore</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.772976444075234</v>
+        <v>-0.001225937483273412</v>
       </c>
       <c r="E16" t="n">
-        <v>3846.798866174078</v>
+        <v>793.5027689334892</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0004608965807038901</v>
+        <v>-1.544969382931251e-06</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1731,22 +1361,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sizeNorm_purchase_InStore</t>
+          <t>brand_Aquafresh</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-3.441509303554934</v>
+        <v>-0.00104961390121955</v>
       </c>
       <c r="E17" t="n">
-        <v>11612.47178943133</v>
+        <v>404.2975857604027</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0002963632003555952</v>
+        <v>-2.596141896928315e-06</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1756,22 +1386,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>discount_purchase_InStore</t>
+          <t>brand_Colgate</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.684129691212521</v>
+        <v>-0.001171043400588133</v>
       </c>
       <c r="E18" t="n">
-        <v>5516.787219337859</v>
+        <v>249.0441200972932</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000486538556680944</v>
+        <v>-4.702152374168264e-06</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1781,374 +1411,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>white_ed_HighSchool</t>
+          <t>brand_Sensodyne</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-1.40061192655272</v>
+        <v>-0.002085853809864203</v>
       </c>
       <c r="E19" t="n">
-        <v>22929.47617781219</v>
+        <v>408.893164909871</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.108346809544775e-05</v>
+        <v>-5.101219557739417e-06</v>
       </c>
       <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>fluoride_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>3.569237781580337</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10147.59284736291</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0003517324586498251</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sizeNorm_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2.30413100460997</v>
-      </c>
-      <c r="E21" t="n">
-        <v>31980.51452374556</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7.204796542279364e-05</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>familypack_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.7541121159324071</v>
-      </c>
-      <c r="E22" t="n">
-        <v>22104.45817016864</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3.411583808691266e-05</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>brand_Aquafresh</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.154264401426082</v>
-      </c>
-      <c r="E23" t="n">
-        <v>13481.71308378106</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.144249254285549e-05</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>brand_Colgate</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.1794089484984691</v>
-      </c>
-      <c r="E24" t="n">
-        <v>31562.13338734439</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-5.684309938643358e-06</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>brand_Sensodyne</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9559824982692933</v>
-      </c>
-      <c r="E25" t="n">
-        <v>43998.73062623275</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.172750178613837e-05</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>mint</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.1601836425442646</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9981.56629373555</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-1.60479465677442e-05</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0.3594643928331388</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9827.630643923743</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3.657691318053243e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>fluoride</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0.315552878078125</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5557.782874511794</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5.677675526427322e-05</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>kids</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>-0.4780590036949419</v>
-      </c>
-      <c r="E29" t="n">
-        <v>12974.29162057816</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-3.684663623073694e-05</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>sizeNorm</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>-0.2047517404307194</v>
-      </c>
-      <c r="E30" t="n">
-        <v>20574.00689489309</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-9.951962273403492e-06</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>discount</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>-0.3057391655512761</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5200.620194772942</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-5.878898171771311e-05</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>familypack</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0.3461074149339022</v>
-      </c>
-      <c r="E32" t="n">
-        <v>16724.50276237104</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2.06946310961555e-05</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>priceperoz</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0.400726730091684</v>
-      </c>
-      <c r="E33" t="n">
-        <v>23860.97722841512</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.679422960156359e-05</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2234,34 +1514,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.758181763338884</v>
+        <v>-10.85563656845212</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2662326598073969</v>
+        <v>3.649724510300945</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04268276145012641</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02744935489924803</v>
+        <v>2.965993782893581</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001218213583718731</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07093881090307944</v>
+        <v>0.5654643609641015</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001663117592089961</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09810870514750818</v>
+        <v>3.674224188055578</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1758810351690681</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07512963892191914</v>
+        <v>1.073161132894551e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2272,34 +1552,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09702899564115081</v>
+        <v>3.427566378282785</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6425496575741879</v>
+        <v>-10.513349833425</v>
       </c>
       <c r="E3" t="n">
-        <v>9.583855951701274e-05</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1146763126340145</v>
+        <v>2.904558516497113</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003307677350193127</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1254410944595845</v>
+        <v>0.5494237005089209</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07874909165618223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1970880172967261</v>
+        <v>3.632013991870498</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0039133173049565</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02211504273968252</v>
+        <v>2.015614072959288e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2310,34 +1590,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.796105650840646</v>
+        <v>4.305578509170686</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7718477574101695</v>
+        <v>4.534372327774971</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.50387116236477</v>
+        <v>-17.85120268242317</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00506469261775365</v>
+        <v>3.676590155975759</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07682169541376131</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04166895712139567</v>
+        <v>0.7193631918334977</v>
       </c>
       <c r="I4" t="n">
-        <v>1.208973336268477e-11</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2947830161617806</v>
+        <v>4.615405222486324</v>
       </c>
       <c r="K4" t="n">
-        <v>3.096523055526859</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.979475600310211</v>
+        <v>7.287661806036285e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2348,34 +1628,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1343651023911474</v>
+        <v>3.562252168916247</v>
       </c>
       <c r="D5" t="n">
-        <v>1.148959150621502</v>
+        <v>3.714561868571114</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0006299566995686296</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.512892747106009</v>
+        <v>-11.60439858745839</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00173224883779665</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18009935762369</v>
+        <v>0.571505367196255</v>
       </c>
       <c r="I5" t="n">
-        <v>2.804474523386889e-13</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3582184733661123</v>
+        <v>3.7557926951821</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1763432319848607</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.513182503959432</v>
+        <v>1.288902552829446e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2386,34 +1666,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6105676789727956</v>
+        <v>4.220834139768805</v>
       </c>
       <c r="D6" t="n">
-        <v>0.751676378276975</v>
+        <v>4.367249671722261</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01475693981277951</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.363965036642787e-05</v>
+        <v>3.572692052018582</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.455217218606928</v>
+        <v>-17.3227315271441</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008056543662378053</v>
+        <v>0.6932417578086219</v>
       </c>
       <c r="I6" t="n">
-        <v>7.764401602422027e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07828493688476171</v>
+        <v>4.46888589899252</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002996703666547388</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>7.938537301181503e-05</v>
+        <v>6.300661425825547e-08</v>
       </c>
     </row>
     <row r="7">
@@ -2424,34 +1704,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2537716029543814</v>
+        <v>4.299258665646677</v>
       </c>
       <c r="D7" t="n">
-        <v>1.00497754755503</v>
+        <v>4.448041493140627</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0009485716024191274</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73683485550817</v>
+        <v>3.617876997577137</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001393434721093275</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.849184874201528</v>
+        <v>-16.9065634754696</v>
       </c>
       <c r="I7" t="n">
-        <v>4.483575191934044e-13</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4341220374627579</v>
+        <v>4.541455601652903</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05600161890825074</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3611300183522386</v>
+        <v>4.079568548690566e-08</v>
       </c>
     </row>
     <row r="8">
@@ -2462,34 +1742,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.637138632521946</v>
+        <v>4.530819127244053</v>
       </c>
       <c r="D8" t="n">
-        <v>26.60869178188748</v>
+        <v>4.731440528097645</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01761050514596408</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4.049612771681973e-05</v>
+        <v>3.848653999221169</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05896097698140345</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009074085730585458</v>
+        <v>0.7499512060612225</v>
       </c>
       <c r="I8" t="n">
-        <v>-34.57589826034429</v>
+        <v>-18.68679347468152</v>
       </c>
       <c r="J8" t="n">
-        <v>6.623219876444577</v>
+        <v>4.822781027892777</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00357757737265184</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6309193952931105</v>
+        <v>5.872771838398445e-08</v>
       </c>
     </row>
     <row r="9">
@@ -2500,34 +1780,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5021112429386686</v>
+        <v>3.412846991835796</v>
       </c>
       <c r="D9" t="n">
-        <v>2.347275273639904</v>
+        <v>3.592302257691869</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005154141488462037</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4140177008121491</v>
+        <v>2.904694554399129</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002027262419884782</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6316385504610866</v>
+        <v>0.5548275529635186</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2234376878876236</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-5.630612371196094</v>
+        <v>-10.46445109114324</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3161034681903755</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.189175511777395</v>
+        <v>1.993575056726148e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2538,34 +1818,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4.693082694193183</v>
+        <v>4.199176008084929</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1104450667774313</v>
+        <v>4.445931196975075</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4319635382243823</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.083554689066363</v>
+        <v>3.593388467766453</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01065015117842223</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4330526964467743</v>
+        <v>0.7070252234223766</v>
       </c>
       <c r="I10" t="n">
-        <v>1.676659363550202e-12</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.684891524018883</v>
+        <v>4.539505154663662</v>
       </c>
       <c r="K10" t="n">
-        <v>-9.906478152736293</v>
+        <v>-17.4860763109182</v>
       </c>
       <c r="L10" t="n">
-        <v>1.460900726468675</v>
+        <v>2.784121733968461e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2576,34 +1856,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>1.046230971634314</v>
+        <v>3.855738156604732</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6314372220339919</v>
+        <v>4.015315253093094</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2106023848293963</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.595734553013704</v>
+        <v>3.274798357388081</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00538615190298517</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.410105261855767</v>
+        <v>0.6302898787798401</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0576342419528743</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.183539204220801</v>
+        <v>4.064445122602815</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7392183571302682</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-8.878238209076025</v>
+        <v>-15.84093196409773</v>
       </c>
     </row>
   </sheetData>
